--- a/results/mp/logistic/corona/confidence/210/desired-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/desired-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="135">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,153 +46,147 @@
     <t>war</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>complaints</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>complaints</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>crude</t>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
   <si>
     <t>kill</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>crash</t>
+    <t>died</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>slash</t>
+  </si>
+  <si>
+    <t>falling</t>
   </si>
   <si>
     <t>lowest</t>
   </si>
   <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>slash</t>
-  </si>
-  <si>
-    <t>warning</t>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>shit</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>disgusting</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>sc</t>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>pressure</t>
   </si>
   <si>
     <t>worse</t>
   </si>
   <si>
-    <t>ridiculous</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>low</t>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>sick</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>fake</t>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>selfish</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>fears</t>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>struggling</t>
   </si>
   <si>
     <t>shame</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>cut</t>
+    <t>empty</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>risk</t>
   </si>
   <si>
@@ -202,6 +196,24 @@
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
     <t>the</t>
   </si>
   <si>
@@ -211,18 +223,18 @@
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>sharing</t>
   </si>
   <si>
@@ -241,6 +253,9 @@
     <t>strong</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
@@ -256,13 +271,13 @@
     <t>thank</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>positive</t>
   </si>
   <si>
     <t>confidence</t>
@@ -271,133 +286,136 @@
     <t>thanks</t>
   </si>
   <si>
-    <t>positive</t>
+    <t>better</t>
   </si>
   <si>
     <t>create</t>
   </si>
   <si>
-    <t>better</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>won</t>
+    <t>healthy</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>like</t>
+    <t>true</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>ready</t>
   </si>
   <si>
     <t>giving</t>
   </si>
   <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>kind</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>ready</t>
+    <t>shares</t>
   </si>
   <si>
     <t>huge</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
     <t>clean</t>
   </si>
   <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>security</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>sure</t>
+    <t>give</t>
   </si>
   <si>
     <t>helping</t>
   </si>
   <si>
-    <t>data</t>
+    <t>check</t>
+  </si>
+  <si>
+    <t>shop</t>
   </si>
   <si>
     <t>you</t>
@@ -758,7 +776,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q67"/>
+  <dimension ref="A1:Q71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -766,10 +784,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -848,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -898,16 +916,16 @@
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K4">
-        <v>0.9696969696969697</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L4">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="M4">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -919,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -927,13 +945,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9333333333333333</v>
+        <v>0.9459459459459459</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -945,19 +963,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -969,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -998,16 +1016,16 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K6">
-        <v>0.9491525423728814</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L6">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1019,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1027,13 +1045,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.918918918918919</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C7">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1048,16 +1066,16 @@
         <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K7">
-        <v>0.9444444444444444</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L7">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1069,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1077,13 +1095,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9117647058823529</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1095,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K8">
         <v>0.9375</v>
@@ -1127,13 +1145,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8947368421052632</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1145,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K9">
         <v>0.9333333333333333</v>
@@ -1177,13 +1195,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8888888888888888</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1195,10 +1213,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K10">
         <v>0.9230769230769231</v>
@@ -1227,13 +1245,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8695652173913043</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1245,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K11">
         <v>0.9166666666666666</v>
@@ -1277,13 +1295,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8666666666666667</v>
+        <v>0.8664383561643836</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>253</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>253</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1295,19 +1313,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K12">
-        <v>0.9164490861618799</v>
+        <v>0.9138381201044387</v>
       </c>
       <c r="L12">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M12">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1319,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1327,13 +1345,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8664383561643836</v>
+        <v>0.84</v>
       </c>
       <c r="C13">
-        <v>253</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>253</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1345,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K13">
         <v>0.9090909090909091</v>
@@ -1398,16 +1416,16 @@
         <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K14">
-        <v>0.9014084507042254</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L14">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c r="M14">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1419,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1448,16 +1466,16 @@
         <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K15">
-        <v>0.8947368421052632</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="L15">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="M15">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1469,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1498,16 +1516,16 @@
         <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K16">
-        <v>0.8936170212765957</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L16">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="M16">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1519,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1527,13 +1545,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7826086956521739</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C17">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1545,31 +1563,31 @@
         <v>0</v>
       </c>
       <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17">
+        <v>0.8936170212765957</v>
+      </c>
+      <c r="L17">
+        <v>42</v>
+      </c>
+      <c r="M17">
+        <v>42</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>5</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K17">
-        <v>0.8928571428571429</v>
-      </c>
-      <c r="L17">
-        <v>100</v>
-      </c>
-      <c r="M17">
-        <v>100</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1577,13 +1595,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.775</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C18">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D18">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1595,19 +1613,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K18">
-        <v>0.890625</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L18">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="M18">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1619,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1627,13 +1645,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7692307692307693</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1645,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K19">
-        <v>0.8867924528301887</v>
+        <v>0.890625</v>
       </c>
       <c r="L19">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="M19">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1669,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1677,13 +1695,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7666666666666667</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C20">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1695,19 +1713,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K20">
-        <v>0.8837209302325582</v>
+        <v>0.88125</v>
       </c>
       <c r="L20">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="M20">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1719,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1727,13 +1745,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7647058823529411</v>
+        <v>0.75</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1745,19 +1763,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K21">
-        <v>0.88125</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="L21">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="M21">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1769,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1777,13 +1795,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.76</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C22">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D22">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1798,16 +1816,16 @@
         <v>6</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K22">
-        <v>0.8611111111111112</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L22">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M22">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1819,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1827,13 +1845,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.75</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C23">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1848,16 +1866,16 @@
         <v>5</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K23">
-        <v>0.8536585365853658</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L23">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="M23">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1869,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1877,13 +1895,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.7391304347826086</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C24">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1895,19 +1913,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K24">
-        <v>0.8448275862068966</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L24">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="M24">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1919,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1927,13 +1945,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.7368421052631579</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="C25">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="D25">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1945,19 +1963,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K25">
-        <v>0.8235294117647058</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="L25">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="M25">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1969,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1977,38 +1995,38 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.7368421052631579</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="C26">
+        <v>35</v>
+      </c>
+      <c r="D26">
+        <v>35</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>16</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K26">
+        <v>0.8235294117647058</v>
+      </c>
+      <c r="L26">
         <v>14</v>
       </c>
-      <c r="D26">
+      <c r="M26">
         <v>14</v>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>5</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K26">
-        <v>0.8095238095238095</v>
-      </c>
-      <c r="L26">
-        <v>51</v>
-      </c>
-      <c r="M26">
-        <v>51</v>
-      </c>
       <c r="N26">
         <v>1</v>
       </c>
@@ -2019,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2027,13 +2045,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.7073643410852714</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="C27">
-        <v>365</v>
+        <v>129</v>
       </c>
       <c r="D27">
-        <v>365</v>
+        <v>129</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2045,19 +2063,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>151</v>
+        <v>60</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K27">
-        <v>0.7916666666666666</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L27">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="M27">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2069,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2077,13 +2095,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6949152542372882</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="C28">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D28">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2095,19 +2113,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K28">
-        <v>0.7916666666666666</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L28">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M28">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2127,13 +2145,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6931216931216931</v>
+        <v>0.6724806201550387</v>
       </c>
       <c r="C29">
-        <v>131</v>
+        <v>347</v>
       </c>
       <c r="D29">
-        <v>131</v>
+        <v>347</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2145,19 +2163,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="K29">
-        <v>0.7777777777777778</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L29">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="M29">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2169,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2180,10 +2198,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="C30">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D30">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2195,19 +2213,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K30">
-        <v>0.775</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L30">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="M30">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2219,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2227,13 +2245,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.6363636363636364</v>
+        <v>0.65</v>
       </c>
       <c r="C31">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2245,31 +2263,31 @@
         <v>0</v>
       </c>
       <c r="H31">
+        <v>7</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K31">
+        <v>0.7714285714285715</v>
+      </c>
+      <c r="L31">
+        <v>27</v>
+      </c>
+      <c r="M31">
+        <v>27</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>8</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K31">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L31">
-        <v>30</v>
-      </c>
-      <c r="M31">
-        <v>30</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2277,13 +2295,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.6129032258064516</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C32">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D32">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2295,19 +2313,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K32">
-        <v>0.76</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L32">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M32">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2319,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2327,13 +2345,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.6040268456375839</v>
+        <v>0.6308724832214765</v>
       </c>
       <c r="C33">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D33">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2345,19 +2363,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K33">
-        <v>0.7588235294117647</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L33">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M33">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2369,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2377,13 +2395,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.5972222222222222</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C34">
-        <v>215</v>
+        <v>17</v>
       </c>
       <c r="D34">
-        <v>215</v>
+        <v>17</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2395,19 +2413,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K34">
-        <v>0.7575757575757576</v>
+        <v>0.7517006802721088</v>
       </c>
       <c r="L34">
-        <v>25</v>
+        <v>221</v>
       </c>
       <c r="M34">
-        <v>25</v>
+        <v>222</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2416,10 +2434,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>8</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2427,13 +2445,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.5925925925925926</v>
+        <v>0.625</v>
       </c>
       <c r="C35">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D35">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2445,19 +2463,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K35">
         <v>0.75</v>
       </c>
       <c r="L35">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M35">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2469,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2477,7 +2495,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.5925925925925926</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C36">
         <v>16</v>
@@ -2495,19 +2513,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K36">
         <v>0.75</v>
       </c>
       <c r="L36">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M36">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2519,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2527,13 +2545,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.5909090909090909</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C37">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D37">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2545,19 +2563,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="K37">
-        <v>0.7428571428571429</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L37">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M37">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2569,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2577,13 +2595,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.5897435897435898</v>
+        <v>0.59375</v>
       </c>
       <c r="C38">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D38">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2595,19 +2613,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K38">
-        <v>0.7391304347826086</v>
+        <v>0.74</v>
       </c>
       <c r="L38">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="M38">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2619,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2627,13 +2645,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.5769230769230769</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="C39">
-        <v>15</v>
+        <v>212</v>
       </c>
       <c r="D39">
-        <v>15</v>
+        <v>212</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2645,19 +2663,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K39">
-        <v>0.7254237288135593</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L39">
-        <v>214</v>
+        <v>16</v>
       </c>
       <c r="M39">
-        <v>214</v>
+        <v>16</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2669,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>81</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2677,13 +2695,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.5686274509803921</v>
+        <v>0.5733333333333334</v>
       </c>
       <c r="C40">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D40">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2695,10 +2713,10 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K40">
         <v>0.7142857142857143</v>
@@ -2727,13 +2745,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.5675675675675675</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C41">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D41">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2745,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="K41">
-        <v>0.7112970711297071</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L41">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="M41">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2769,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>69</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2777,13 +2795,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.5641025641025641</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C42">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D42">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2795,19 +2813,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K42">
-        <v>0.7083333333333334</v>
+        <v>0.698744769874477</v>
       </c>
       <c r="L42">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="M42">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2819,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>7</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2827,37 +2845,37 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.5483870967741935</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="C43">
+        <v>19</v>
+      </c>
+      <c r="D43">
+        <v>19</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43">
         <v>17</v>
       </c>
-      <c r="D43">
-        <v>17</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>14</v>
-      </c>
       <c r="J43" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K43">
-        <v>0.7078651685393258</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="L43">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="M43">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2869,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2877,13 +2895,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.5384615384615384</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C44">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D44">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2895,19 +2913,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K44">
-        <v>0.7037037037037037</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L44">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="M44">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2919,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2927,13 +2945,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.5277777777777778</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="C45">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D45">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2945,19 +2963,19 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K45">
-        <v>0.6842105263157895</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L45">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M45">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2969,7 +2987,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2977,13 +2995,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.5178571428571429</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C46">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D46">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2995,19 +3013,19 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K46">
-        <v>0.6842105263157895</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L46">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M46">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -3019,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3027,13 +3045,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.5</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="C47">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D47">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3045,19 +3063,19 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K47">
-        <v>0.6818181818181818</v>
+        <v>0.6629213483146067</v>
       </c>
       <c r="L47">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="M47">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3069,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3077,13 +3095,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.4909090909090909</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C48">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D48">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3095,19 +3113,19 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K48">
-        <v>0.676923076923077</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L48">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M48">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3119,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3127,7 +3145,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.4838709677419355</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C49">
         <v>15</v>
@@ -3145,19 +3163,19 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K49">
-        <v>0.6702127659574468</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L49">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="M49">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3169,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3177,13 +3195,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.48</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="C50">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D50">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3195,13 +3213,13 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K50">
-        <v>0.6666666666666666</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L50">
         <v>18</v>
@@ -3219,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3227,13 +3245,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.4727272727272727</v>
+        <v>0.3531746031746032</v>
       </c>
       <c r="C51">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="D51">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3245,19 +3263,19 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K51">
-        <v>0.6666666666666666</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L51">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M51">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3269,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3277,13 +3295,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.3174603174603174</v>
+        <v>0.3116883116883117</v>
       </c>
       <c r="C52">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="D52">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3295,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>172</v>
+        <v>53</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K52">
-        <v>0.6571428571428571</v>
+        <v>0.625</v>
       </c>
       <c r="L52">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="M52">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3319,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3327,13 +3345,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2777777777777778</v>
+        <v>0.225</v>
       </c>
       <c r="C53">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D53">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3345,19 +3363,19 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K53">
-        <v>0.6428571428571429</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L53">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M53">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3369,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3377,13 +3395,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2077922077922078</v>
+        <v>0.2064343163538874</v>
       </c>
       <c r="C54">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="D54">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3395,10 +3413,10 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>61</v>
+        <v>296</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K54">
         <v>0.6190476190476191</v>
@@ -3427,13 +3445,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.2</v>
+        <v>0.06333333333333334</v>
       </c>
       <c r="C55">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D55">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3445,19 +3463,19 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>64</v>
+        <v>281</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K55">
-        <v>0.6129032258064516</v>
+        <v>0.6</v>
       </c>
       <c r="L55">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M55">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3469,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3477,37 +3495,37 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1420911528150134</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="C56">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="D56">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56">
-        <v>320</v>
+        <v>2124</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="K56">
-        <v>0.5769230769230769</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="L56">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M56">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3519,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3527,141 +3545,237 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.002519868191509983</v>
+        <v>0.00643915003219575</v>
       </c>
       <c r="C57">
+        <v>20</v>
+      </c>
+      <c r="D57">
+        <v>21</v>
+      </c>
+      <c r="E57">
+        <v>0.05</v>
+      </c>
+      <c r="F57">
+        <v>0.95</v>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>3086</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K57">
+        <v>0.5769230769230769</v>
+      </c>
+      <c r="L57">
+        <v>15</v>
+      </c>
+      <c r="M57">
+        <v>15</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
+        <v>0.006313131313131313</v>
+      </c>
+      <c r="C58">
+        <v>15</v>
+      </c>
+      <c r="D58">
+        <v>18</v>
+      </c>
+      <c r="E58">
+        <v>0.17</v>
+      </c>
+      <c r="F58">
+        <v>0.83</v>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>2361</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K58">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L58">
+        <v>16</v>
+      </c>
+      <c r="M58">
+        <v>16</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59">
+        <v>0.004212637913741223</v>
+      </c>
+      <c r="C59">
+        <v>21</v>
+      </c>
+      <c r="D59">
+        <v>32</v>
+      </c>
+      <c r="E59">
+        <v>0.34</v>
+      </c>
+      <c r="F59">
+        <v>0.6599999999999999</v>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>4964</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K59">
+        <v>0.5652173913043478</v>
+      </c>
+      <c r="L59">
         <v>13</v>
       </c>
-      <c r="D57">
-        <v>19</v>
-      </c>
-      <c r="E57">
-        <v>0.32</v>
-      </c>
-      <c r="F57">
-        <v>0.6799999999999999</v>
-      </c>
-      <c r="G57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57">
-        <v>5146</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K57">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L57">
-        <v>24</v>
-      </c>
-      <c r="M57">
-        <v>24</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="J58" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K58">
-        <v>0.5652173913043478</v>
-      </c>
-      <c r="L58">
+      <c r="M59">
         <v>13</v>
       </c>
-      <c r="M58">
-        <v>13</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q58">
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59">
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
-      <c r="J59" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K59">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="L59">
-        <v>25</v>
-      </c>
-      <c r="M59">
-        <v>25</v>
-      </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>20</v>
-      </c>
-    </row>
     <row r="60" spans="1:17">
+      <c r="A60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>0.003247506379030387</v>
+      </c>
+      <c r="C60">
+        <v>14</v>
+      </c>
+      <c r="D60">
+        <v>31</v>
+      </c>
+      <c r="E60">
+        <v>0.55</v>
+      </c>
+      <c r="F60">
+        <v>0.45</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>4297</v>
+      </c>
       <c r="J60" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K60">
-        <v>0.5384615384615384</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="L60">
+        <v>17</v>
+      </c>
+      <c r="M60">
+        <v>17</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
         <v>14</v>
       </c>
-      <c r="M60">
-        <v>14</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>12</v>
-      </c>
     </row>
     <row r="61" spans="1:17">
+      <c r="A61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61">
+        <v>0.002912621359223301</v>
+      </c>
+      <c r="C61">
+        <v>15</v>
+      </c>
+      <c r="D61">
+        <v>30</v>
+      </c>
+      <c r="E61">
+        <v>0.5</v>
+      </c>
+      <c r="F61">
+        <v>0.5</v>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>5135</v>
+      </c>
       <c r="J61" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K61">
-        <v>0.4657534246575342</v>
+        <v>0.547945205479452</v>
       </c>
       <c r="L61">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M61">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3673,21 +3787,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:17">
       <c r="J62" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="K62">
-        <v>0.4411764705882353</v>
+        <v>0.5</v>
       </c>
       <c r="L62">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="M62">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3699,21 +3813,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:17">
       <c r="J63" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K63">
-        <v>0.4102564102564102</v>
+        <v>0.5</v>
       </c>
       <c r="L63">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M63">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3725,21 +3839,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>46</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:17">
       <c r="J64" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K64">
-        <v>0.375</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L64">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M64">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3751,21 +3865,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K65">
-        <v>0.3050847457627119</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="L65">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M65">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3777,21 +3891,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K66">
-        <v>0.2456140350877193</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="L66">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M66">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3803,33 +3917,137 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K67">
-        <v>0.01251042535446205</v>
+        <v>0.1376146788990826</v>
       </c>
       <c r="L67">
         <v>15</v>
       </c>
       <c r="M67">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N67">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>1184</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K68">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="L68">
+        <v>15</v>
+      </c>
+      <c r="M68">
+        <v>15</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17">
+      <c r="J69" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K69">
+        <v>0.01419031719532554</v>
+      </c>
+      <c r="L69">
+        <v>17</v>
+      </c>
+      <c r="M69">
+        <v>19</v>
+      </c>
+      <c r="N69">
+        <v>0.89</v>
+      </c>
+      <c r="O69">
+        <v>0.11</v>
+      </c>
+      <c r="P69" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="70" spans="10:17">
+      <c r="J70" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K70">
+        <v>0.003940658321743162</v>
+      </c>
+      <c r="L70">
+        <v>17</v>
+      </c>
+      <c r="M70">
+        <v>31</v>
+      </c>
+      <c r="N70">
+        <v>0.55</v>
+      </c>
+      <c r="O70">
+        <v>0.45</v>
+      </c>
+      <c r="P70" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>4297</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
+      <c r="J71" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K71">
+        <v>0.002912621359223301</v>
+      </c>
+      <c r="L71">
+        <v>15</v>
+      </c>
+      <c r="M71">
+        <v>30</v>
+      </c>
+      <c r="N71">
+        <v>0.5</v>
+      </c>
+      <c r="O71">
+        <v>0.5</v>
+      </c>
+      <c r="P71" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>5135</v>
       </c>
     </row>
   </sheetData>
